--- a/Задачи.xlsx
+++ b/Задачи.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergejkocemirov/SOVU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E51F7DDC-44C6-ED49-B07C-6A0F23995E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8A08EC-74F9-0F4A-94CC-8A258C6A81A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2200" yWindow="-25640" windowWidth="33260" windowHeight="16520" xr2:uid="{79E1CA67-4FBC-9F41-8713-B2399C0D49A2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16860" xr2:uid="{79E1CA67-4FBC-9F41-8713-B2399C0D49A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
   <si>
     <t>Здачи</t>
   </si>
@@ -61,6 +61,165 @@
   </si>
   <si>
     <t>Сделать тесты на основные функции</t>
+  </si>
+  <si>
+    <t>Тесты</t>
+  </si>
+  <si>
+    <t>Выпускник</t>
+  </si>
+  <si>
+    <t>Школа</t>
+  </si>
+  <si>
+    <t>Учитель</t>
+  </si>
+  <si>
+    <t>Заполнение школы</t>
+  </si>
+  <si>
+    <t>Создание ссылки</t>
+  </si>
+  <si>
+    <t>Возможность подтверждения</t>
+  </si>
+  <si>
+    <t>Админ</t>
+  </si>
+  <si>
+    <t>Залогиниться</t>
+  </si>
+  <si>
+    <t>Создать выпускника</t>
+  </si>
+  <si>
+    <t>Удалить выпускника</t>
+  </si>
+  <si>
+    <t>Удалить школу</t>
+  </si>
+  <si>
+    <t>Создать заявку</t>
+  </si>
+  <si>
+    <t>Создание заявки</t>
+  </si>
+  <si>
+    <t>Добавление и отображение учителя</t>
+  </si>
+  <si>
+    <t>Добавление и отображение выпускника</t>
+  </si>
+  <si>
+    <t>Добавить статус для учителя и выпускника: подтвержден, на рассмотрении, отклонен</t>
+  </si>
+  <si>
+    <t>Заполнение анкеты</t>
+  </si>
+  <si>
+    <t>Отображение анкеты для школы</t>
+  </si>
+  <si>
+    <t>Для выпускника создается ссылка</t>
+  </si>
+  <si>
+    <t>Классы</t>
+  </si>
+  <si>
+    <t>Атрибуты</t>
+  </si>
+  <si>
+    <t>Контроллеры</t>
+  </si>
+  <si>
+    <t>Название краткое</t>
+  </si>
+  <si>
+    <t>Название полное</t>
+  </si>
+  <si>
+    <t>Адрес</t>
+  </si>
+  <si>
+    <t>ИНН</t>
+  </si>
+  <si>
+    <t>ФИО Директора</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>Правоприеник ИНН</t>
+  </si>
+  <si>
+    <t>Добавить школу из формы</t>
+  </si>
+  <si>
+    <t>Создать ссылку для ЛК</t>
+  </si>
+  <si>
+    <t>Школа вводимая</t>
+  </si>
+  <si>
+    <t>Школа действующая</t>
+  </si>
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>Период обучения</t>
+  </si>
+  <si>
+    <t>Ссылка на форму</t>
+  </si>
+  <si>
+    <t>Заявка</t>
+  </si>
+  <si>
+    <t>Методы</t>
+  </si>
+  <si>
+    <t>Подтвердить выпускника</t>
+  </si>
+  <si>
+    <t>Администратор</t>
+  </si>
+  <si>
+    <t>Создать ссылку для формы</t>
+  </si>
+  <si>
+    <t>Предмет</t>
+  </si>
+  <si>
+    <t>Период работы</t>
+  </si>
+  <si>
+    <t>Статус подтверждения</t>
+  </si>
+  <si>
+    <t>Статус заявки</t>
+  </si>
+  <si>
+    <t>Создана</t>
+  </si>
+  <si>
+    <t>Подтвердила школа</t>
+  </si>
+  <si>
+    <t>Выполнена</t>
+  </si>
+  <si>
+    <t>Изменить статус заявки</t>
+  </si>
+  <si>
+    <t>Ссылка для школы</t>
+  </si>
+  <si>
+    <t>Ссылка для учителей</t>
+  </si>
+  <si>
+    <t>Многие</t>
   </si>
 </sst>
 </file>
@@ -413,15 +572,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6BD8E0-15C2-3249-AEE0-69AB48C15C3C}">
-  <dimension ref="B3:B11"/>
+  <dimension ref="B3:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
@@ -469,6 +631,310 @@
         <v>8</v>
       </c>
     </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L36" t="s">
+        <v>39</v>
+      </c>
+      <c r="M36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="K49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="L50" t="s">
+        <v>18</v>
+      </c>
+      <c r="M50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="L51" t="s">
+        <v>48</v>
+      </c>
+      <c r="M51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="L52" t="s">
+        <v>50</v>
+      </c>
+      <c r="M52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="K57" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="L58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="L59" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="L60" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="L61" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J66" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="K67" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="L68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="L69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="L70" t="s">
+        <v>54</v>
+      </c>
+      <c r="M70" t="s">
+        <v>55</v>
+      </c>
+      <c r="N70" t="s">
+        <v>56</v>
+      </c>
+      <c r="O70" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="L71" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="L72" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="K74" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="L75" t="s">
+        <v>21</v>
+      </c>
+      <c r="M75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="L76" t="s">
+        <v>58</v>
+      </c>
+      <c r="M76" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="L77" t="s">
+        <v>40</v>
+      </c>
+      <c r="M77" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Задачи.xlsx
+++ b/Задачи.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergejkocemirov/SOVU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8A08EC-74F9-0F4A-94CC-8A258C6A81A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6E9641-DBCD-654E-8D81-C8EA2E2DA782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16860" xr2:uid="{79E1CA67-4FBC-9F41-8713-B2399C0D49A2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
   <si>
     <t>Здачи</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>Многие</t>
+  </si>
+  <si>
+    <t>Автоматическая генерация поручения</t>
   </si>
 </sst>
 </file>
@@ -574,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6BD8E0-15C2-3249-AEE0-69AB48C15C3C}">
   <dimension ref="B3:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="L69" sqref="L69"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -636,6 +639,11 @@
         <v>25</v>
       </c>
     </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>9</v>
